--- a/medicine/Enfance/Lemony_Snicket/Lemony_Snicket.xlsx
+++ b/medicine/Enfance/Lemony_Snicket/Lemony_Snicket.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lemony Snicket est l’un des personnages principaux de la série de livres Les Désastreuses Aventures des orphelins Baudelaire, dont il est le narrateur intégré au récit (puisqu'il est l'auteur de la série, Daniel Handler utilisant un pseudonyme). 
 Son passé et son implication dans l’intrigue sont révélés progressivement au fil des treize tomes, mais ce personnage a également fait l’objet de deux hors séries : son autobiographie non autorisée et The Beatrice Letters (non traduit en français).  
@@ -513,7 +525,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La vie de Lemony Snicket est étroitement liée à l’organisation VFD (VDC en français), qui est derrière la plupart des évènements décrits dans la série. Lemony est le fils de Jacob Snicket, un ancien membre de VDC à la retraite, qui désire néanmoins que ses enfants entrent dans l’organisation. Il passe une enfance heureuse, entouré de sa mère Bernadette Snicket, de son père, et de son frère et de sa sœur aînés, les jumeaux Kit et Jacques Snicket, au Vacherin Double Crème, une grande ferme laitière dont les laitiers sont également des membres de l’organisation, et où la famille préfère vivre plutôt que dans la demeure Snicket, située dans la capitale. Selon ses dires, ses loisirs préférés de l’époque restaient le clavecin et l’exercice de l’art la taxidermie.
 Cette époque d’insouciance est rompue assez rapidement lorsque lui et sa fratrie sont enlevés (avec l’accord de leurs parents) de la famille par un membre de l’organisation, pour commencer sa formation de VDC. Après que toutes les enquêtes concernant sa disparition eurent été classées, il est conduit à un quartier général VDC, dont la localisation précise est inconnue, pour y commencer sa formation : il est également suggéré qu’il en a passé une partie à l’Institut J. Alfred Prufrock et une autre au QG des monts Mainmorte, mais a généralement été obligé de changer souvent de quartier général du fait des affrontements de la guerre du schisme de VDC. C’est lors de sa première visite à un quartier général qu’il rencontre la Duchesse de Winnipeg, jeune VDC tout comme lui, qui deviendra une de ses meilleures amies.
@@ -547,7 +561,9 @@
           <t>Style d'écriture du narrateur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lemony a un style ironique, philosophique et austère, semblable à celui de Charles Dickens (voir Oliver Twist), et aime laisser planer une aura de mystère autour de l'avenir des Baudelaire et de sa propre histoire qui prend place dans les livres. Il semble ne vouloir que le bien dans le monde mais il est mêlé aux affaires douteuses des VDC.[réf. nécessaire]
 </t>
@@ -578,7 +594,9 @@
           <t>Adaptation cinématographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le film tiré de sa série, Lemony Snicket est interprété par Jude Law. Le film narre les trois premiers épisodes des aventures des orphelins Baudelaire.
 Dans la série tirée des livres, il est interprété par Patrick Warburton. La première saison de cette série Netflix Les Désastreuses Aventures des orphelins Baudelaire raconte les quatre premiers tomes, la seconde les tomes cinq à neuf alors que la troisième saison adapte les tomes dix à treize.
